--- a/Codes/Player Data/bb_evaluation.xlsx
+++ b/Codes/Player Data/bb_evaluation.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Desktop\python_fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A63A00-432D-4FD7-B95A-89F245160726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE2E7C0-CDBB-46FB-9DEC-836AFBDC0DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +121,36 @@
   </si>
   <si>
     <t>nj01</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>fleet</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>shenhai</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>zl</t>
+  </si>
+  <si>
+    <t>mitao</t>
+  </si>
+  <si>
+    <t>jdl</t>
+  </si>
+  <si>
+    <t>zgl</t>
+  </si>
+  <si>
+    <t>qk</t>
   </si>
 </sst>
 </file>
@@ -429,25 +468,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,547 +495,693 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>0.53</v>
+      </c>
+      <c r="E2">
+        <v>0.54</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J2">
+        <f ca="1">RAND()</f>
+        <v>0.40480421569142278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0.45</v>
+      </c>
+      <c r="E3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F3">
+        <v>0.25</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
+      </c>
+      <c r="I3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J3">
+        <f ca="1">RAND()</f>
+        <v>3.0974667704443681E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="D4">
         <v>0.63</v>
       </c>
-      <c r="D2">
+      <c r="E4">
         <v>0.7</v>
       </c>
-      <c r="E2">
+      <c r="F4">
         <v>0.15</v>
       </c>
-      <c r="F2">
+      <c r="G4">
         <v>0.85</v>
       </c>
-      <c r="G2">
+      <c r="H4">
         <v>0.53</v>
       </c>
-      <c r="H2">
+      <c r="I4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="J4">
+        <f ca="1">RAND()</f>
+        <v>0.10251038311455973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
         <v>0.72</v>
       </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3">
+      <c r="G5">
+        <v>0.6</v>
+      </c>
+      <c r="H5">
         <v>0.7</v>
       </c>
-      <c r="F3">
-        <v>0.8</v>
-      </c>
-      <c r="G3">
-        <v>0.9</v>
-      </c>
-      <c r="H3">
+      <c r="I5">
+        <v>0.65</v>
+      </c>
+      <c r="J5">
+        <f ca="1">RAND()</f>
+        <v>0.83114586189537287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
         <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>0.7</v>
-      </c>
-      <c r="D4">
-        <v>0.8</v>
-      </c>
-      <c r="E4">
-        <v>0.72</v>
-      </c>
-      <c r="F4">
-        <v>0.6</v>
-      </c>
-      <c r="G4">
-        <v>0.7</v>
-      </c>
-      <c r="H4">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>0.65</v>
-      </c>
-      <c r="D5">
-        <v>0.9</v>
-      </c>
-      <c r="E5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.5</v>
-      </c>
-      <c r="H5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D6">
-        <v>0.6</v>
       </c>
       <c r="E6">
         <v>0.8</v>
       </c>
       <c r="F6">
+        <v>0.6</v>
+      </c>
+      <c r="G6">
+        <v>0.6</v>
+      </c>
+      <c r="H6">
         <v>0.63</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <v>0.6</v>
+      </c>
+      <c r="J6">
+        <f ca="1">RAND()</f>
+        <v>0.85742339481442742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <f ca="1">RAND()</f>
+        <v>0.89752703498271225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
         <v>0.8</v>
       </c>
-      <c r="H6">
+      <c r="F8">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G8">
+        <v>0.6</v>
+      </c>
+      <c r="H8">
+        <v>0.7</v>
+      </c>
+      <c r="I8">
+        <v>0.63</v>
+      </c>
+      <c r="J8">
+        <f ca="1">RAND()</f>
+        <v>0.22056633704453599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>0.45</v>
+      </c>
+      <c r="G9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.46</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <f ca="1">RAND()</f>
+        <v>0.8297084808541807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.63</v>
+      </c>
+      <c r="F10">
+        <v>0.05</v>
+      </c>
+      <c r="G10">
+        <v>0.53</v>
+      </c>
+      <c r="H10">
+        <v>0.51</v>
+      </c>
+      <c r="I10">
+        <v>0.61</v>
+      </c>
+      <c r="J10">
+        <f ca="1">RAND()</f>
+        <v>0.17250486315737623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="D11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E11">
         <v>0.6</v>
       </c>
-      <c r="D7">
-        <v>0.65</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G7">
-        <v>0.6</v>
-      </c>
-      <c r="H7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11">
+        <v>0.63</v>
+      </c>
+      <c r="H11">
+        <v>0.8</v>
+      </c>
+      <c r="I11">
+        <v>0.7</v>
+      </c>
+      <c r="J11">
+        <f ca="1">RAND()</f>
+        <v>0.65852791479762152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>0.81</v>
-      </c>
-      <c r="D8">
-        <v>0.72</v>
-      </c>
-      <c r="E8">
-        <v>0.33</v>
-      </c>
-      <c r="F8">
-        <v>0.81</v>
-      </c>
-      <c r="G8">
-        <v>0.72</v>
-      </c>
-      <c r="H8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.63</v>
-      </c>
-      <c r="D9">
-        <v>0.7</v>
-      </c>
-      <c r="E9">
-        <v>0.15</v>
-      </c>
-      <c r="F9">
-        <v>0.85</v>
-      </c>
-      <c r="G9">
-        <v>0.53</v>
-      </c>
-      <c r="H9">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0.6</v>
-      </c>
-      <c r="D10">
-        <v>0.85</v>
-      </c>
-      <c r="E10">
-        <v>0.05</v>
-      </c>
-      <c r="F10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G10">
-        <v>0.6</v>
-      </c>
-      <c r="H10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
-        <v>0.4</v>
+      <c r="C12" t="s">
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>0.81</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.81</v>
       </c>
       <c r="H12">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.72</v>
+      </c>
+      <c r="I12">
+        <v>0.9</v>
+      </c>
+      <c r="J12">
+        <f ca="1">RAND()</f>
+        <v>0.58399816366324431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>0.77</v>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.4</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>0.48</v>
+      </c>
+      <c r="J13">
+        <f ca="1">RAND()</f>
+        <v>0.41365261013609345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0.72</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
         <v>0.7</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>0.8</v>
       </c>
-      <c r="H13">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
+      <c r="H14">
+        <v>0.9</v>
+      </c>
+      <c r="I14">
         <v>0.75</v>
       </c>
-      <c r="D14">
-        <v>0.8</v>
-      </c>
-      <c r="E14">
-        <v>0.6</v>
-      </c>
-      <c r="F14">
-        <v>0.6</v>
-      </c>
-      <c r="G14">
-        <v>0.63</v>
-      </c>
-      <c r="H14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f ca="1">RAND()</f>
+        <v>0.72622287629112747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>0.65</v>
+      <c r="C15" t="s">
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="E15">
         <v>0.65</v>
       </c>
       <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>0.8</v>
+      </c>
+      <c r="I15">
+        <v>0.88</v>
+      </c>
+      <c r="J15">
+        <f ca="1">RAND()</f>
+        <v>0.32374211956590071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0.65</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="F16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>0.63</v>
+      </c>
+      <c r="J16">
+        <f ca="1">RAND()</f>
+        <v>0.12116245111283075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>0.63</v>
+      </c>
+      <c r="E17">
+        <v>0.7</v>
+      </c>
+      <c r="F17">
+        <v>0.15</v>
+      </c>
+      <c r="G17">
+        <v>0.85</v>
+      </c>
+      <c r="H17">
+        <v>0.53</v>
+      </c>
+      <c r="I17">
+        <v>0.72</v>
+      </c>
+      <c r="J17">
+        <f ca="1">RAND()</f>
+        <v>0.77260871131189579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>0.65</v>
+      </c>
+      <c r="E18">
+        <v>0.75</v>
+      </c>
+      <c r="F18">
+        <v>0.65</v>
+      </c>
+      <c r="G18">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G15">
+      <c r="H18">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H15">
+      <c r="I18">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="J18">
+        <f ca="1">RAND()</f>
+        <v>0.97109639325594665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>0.6</v>
+      </c>
+      <c r="E19">
+        <v>0.65</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H19">
+        <v>0.6</v>
+      </c>
+      <c r="I19">
+        <v>0.6</v>
+      </c>
+      <c r="J19">
+        <f ca="1">RAND()</f>
+        <v>0.896774184541547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.65</v>
+      </c>
+      <c r="F20">
+        <v>0.4</v>
+      </c>
+      <c r="G20">
+        <v>0.4</v>
+      </c>
+      <c r="H20">
+        <v>0.44</v>
+      </c>
+      <c r="I20">
+        <v>0.52</v>
+      </c>
+      <c r="J20">
+        <f ca="1">RAND()</f>
+        <v>0.94739149617378848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>0.6</v>
+      </c>
+      <c r="E21">
+        <v>0.85</v>
+      </c>
+      <c r="F21">
+        <v>0.05</v>
+      </c>
+      <c r="G21">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D16">
-        <v>0.63</v>
-      </c>
-      <c r="E16">
-        <v>0.05</v>
-      </c>
-      <c r="F16">
-        <v>0.53</v>
-      </c>
-      <c r="G16">
-        <v>0.51</v>
-      </c>
-      <c r="H16">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>0.4</v>
-      </c>
-      <c r="D17">
-        <v>0.65</v>
-      </c>
-      <c r="E17">
-        <v>0.4</v>
-      </c>
-      <c r="F17">
-        <v>0.4</v>
-      </c>
-      <c r="G17">
-        <v>0.44</v>
-      </c>
-      <c r="H17">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>0.53</v>
-      </c>
-      <c r="D18">
-        <v>0.54</v>
-      </c>
-      <c r="E18">
-        <v>0.2</v>
-      </c>
-      <c r="F18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G18">
-        <v>0.5</v>
-      </c>
-      <c r="H18">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>0.45</v>
-      </c>
-      <c r="D19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E19">
-        <v>0.25</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.4</v>
-      </c>
-      <c r="H19">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>0.5</v>
-      </c>
-      <c r="D20">
+      <c r="H21">
         <v>0.6</v>
       </c>
-      <c r="E20">
-        <v>0.45</v>
-      </c>
-      <c r="F20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G20">
-        <v>0.46</v>
-      </c>
-      <c r="H20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>0.7</v>
-      </c>
-      <c r="D21">
+      <c r="I21">
         <v>0.8</v>
       </c>
-      <c r="E21">
-        <v>0.7</v>
-      </c>
-      <c r="F21">
-        <v>0.6</v>
-      </c>
-      <c r="G21">
-        <v>0.7</v>
-      </c>
-      <c r="H21">
-        <v>0.63</v>
+      <c r="J21">
+        <f ca="1">RAND()</f>
+        <v>0.37457260355708377</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
-    <sortCondition ref="B1:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
+    <sortCondition ref="J1:J22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
